--- a/AbortionLaws.xlsx
+++ b/AbortionLaws.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corlow/Dropbox (Personal)/My Mac (Corinnes-iMac.fios-router.home)/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corlow/Dropbox/Miscellaneous/Marketing/corinnelow.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49784E8C-2890-BA41-AB16-3E2F98288682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16440" xr2:uid="{F88BD5E8-1787-418E-A130-75EE451C2B33}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -455,8 +460,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,12 +528,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FF202124"/>
@@ -575,14 +574,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,57 +895,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E2C5BE-D0D4-43A3-887A-4543176781A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,14 +963,14 @@
       <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,14 +1050,14 @@
       <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,14 +1079,14 @@
       <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="50" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,14 +1108,14 @@
       <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="50" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="50" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="50" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1226,14 +1221,14 @@
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="50" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1255,14 +1250,14 @@
       <c r="G12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1308,7 @@
       <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -1430,7 +1425,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:B32">
+  <sortState ref="A20:B32">
     <sortCondition ref="A20:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
